--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HITESHWAR SINGH\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\450DataStrucutre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B565D824-7645-48A0-A8B5-B6AE085BB5EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11080F7C-B1EF-4063-9CCB-709EEC2370DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1878,7 +1878,7 @@
   <dimension ref="A1:C480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2044,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\450DataStrucutre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11080F7C-B1EF-4063-9CCB-709EEC2370DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B2F174B-D442-489A-8B7D-E85D54F3D9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="480">
   <si>
     <t>Topic:</t>
   </si>
@@ -1417,6 +1419,54 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>hashin element duplicate return greater than n/k</t>
+  </si>
+  <si>
+    <t>using hashing (set&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t>A19: Using Hasdhing thorugh maps</t>
+  </si>
+  <si>
+    <t>A20: Using Hasdhing thorugh maps</t>
+  </si>
+  <si>
+    <t>WAY of doing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>A22: Using Hasdhing thorugh sets</t>
+  </si>
+  <si>
+    <t>A25: Using Hasdhing thorugh sets</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/given-an-array-a-and-a-number-x-check-for-pair-in-a-with-sum-as-x/</t>
+  </si>
+  <si>
+    <t>Two Pointer Theorem Inside a loop (A29)</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A32 Two pointer updated</t>
+  </si>
+  <si>
+    <t>different approch gfg vist again</t>
   </si>
 </sst>
 </file>
@@ -1547,21 +1597,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1875,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C480"/>
+  <dimension ref="A1:E480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1886,10 +1936,11 @@
     <col min="1" max="1" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.19921875" style="1"/>
+    <col min="4" max="4" width="36.19921875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1899,8 +1950,11 @@
       <c r="C1" s="7" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1911,7 +1965,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1922,7 +1976,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1933,7 +1987,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1944,7 +1998,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1955,7 +2009,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1965,8 +2019,11 @@
       <c r="C7" s="4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1977,7 +2034,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
@@ -1987,8 +2044,11 @@
       <c r="C9" s="4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
@@ -1999,7 +2059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -2010,7 +2070,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -2021,7 +2081,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -2032,7 +2092,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
@@ -2043,7 +2103,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>3</v>
       </c>
@@ -2054,7 +2114,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -2065,7 +2125,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
@@ -2076,7 +2136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -2084,10 +2144,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
@@ -2095,10 +2155,13 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
@@ -2106,10 +2169,13 @@
         <v>22</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
@@ -2120,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -2128,10 +2194,13 @@
         <v>24</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -2139,10 +2208,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2150,10 +2219,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
@@ -2161,10 +2230,13 @@
         <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
@@ -2172,21 +2244,30 @@
         <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
@@ -2194,21 +2275,27 @@
         <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2219,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -2227,10 +2314,13 @@
         <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
@@ -2238,10 +2328,13 @@
         <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2249,21 +2342,21 @@
         <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
@@ -2271,10 +2364,10 @@
         <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>3</v>
       </c>
@@ -2282,10 +2375,10 @@
         <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
@@ -2293,21 +2386,20 @@
         <v>39</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="C39" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2318,7 +2410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2329,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -2340,7 +2432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -2351,7 +2443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -2362,7 +2454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
@@ -2373,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>40</v>
       </c>
@@ -2384,7 +2476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
@@ -2395,7 +2487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
@@ -6913,11 +7005,11 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -7370,4 +7462,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId446"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FD864E-F32B-4300-878E-CE965456EA10}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="86.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\450DataStrucutre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B2F174B-D442-489A-8B7D-E85D54F3D9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEDA5C2-1AF4-4C7A-9442-A76225FB162D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="482">
   <si>
     <t>Topic:</t>
   </si>
@@ -1467,6 +1466,12 @@
   </si>
   <si>
     <t>different approch gfg vist again</t>
+  </si>
+  <si>
+    <t>Check again</t>
+  </si>
+  <si>
+    <t>Discuss</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1587,6 +1592,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1927,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2407,7 +2415,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>2</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2418,11 +2426,11 @@
         <v>42</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2440,7 +2448,10 @@
         <v>44</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2</v>
+        <v>463</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2498,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -2509,11 +2520,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
@@ -2521,10 +2532,10 @@
         <v>52</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>51</v>
       </c>
@@ -2532,10 +2543,10 @@
         <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>51</v>
       </c>
@@ -2543,10 +2554,13 @@
         <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>51</v>
       </c>
@@ -2557,7 +2571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>51</v>
       </c>
@@ -2565,10 +2579,10 @@
         <v>56</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>51</v>
       </c>
@@ -2576,10 +2590,10 @@
         <v>57</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>51</v>
       </c>
@@ -2587,11 +2601,11 @@
         <v>58</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2601,8 +2615,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -2612,8 +2626,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -2631,7 +2645,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>2</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2642,11 +2656,11 @@
         <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>2</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2730,7 +2744,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>2</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2741,7 +2755,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>2</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
